--- a/data/survival/Westcott/B_survival_06252025.xlsx
+++ b/data/survival/Westcott/B_survival_06252025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{642C4724-5923-294F-96F3-EB515706DEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331A1FE-C202-1F4A-9860-3F39F4030909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="520" windowWidth="28040" windowHeight="17040" xr2:uid="{CA941532-24D2-184F-8B30-D5633C401736}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L159" sqref="L159"/>
+      <selection pane="bottomLeft" activeCell="F152" sqref="F152:F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5918,7 +5918,7 @@
         <v>30</v>
       </c>
       <c r="F152" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G152" t="s">
         <v>10</v>
@@ -5953,7 +5953,7 @@
         <v>30</v>
       </c>
       <c r="F153" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G153" t="s">
         <v>10</v>
@@ -5988,7 +5988,7 @@
         <v>30</v>
       </c>
       <c r="F154" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G154" t="s">
         <v>10</v>
@@ -6023,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="F155" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G155" t="s">
         <v>10</v>
@@ -6058,7 +6058,7 @@
         <v>30</v>
       </c>
       <c r="F156" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G156" t="s">
         <v>10</v>
@@ -6093,7 +6093,7 @@
         <v>30</v>
       </c>
       <c r="F157" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G157" t="s">
         <v>10</v>
@@ -6128,7 +6128,7 @@
         <v>30</v>
       </c>
       <c r="F158" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G158" t="s">
         <v>10</v>
@@ -6163,7 +6163,7 @@
         <v>30</v>
       </c>
       <c r="F159" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G159" t="s">
         <v>10</v>
@@ -6198,7 +6198,7 @@
         <v>30</v>
       </c>
       <c r="F160" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G160" t="s">
         <v>10</v>
@@ -6233,7 +6233,7 @@
         <v>30</v>
       </c>
       <c r="F161" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G161" t="s">
         <v>10</v>
